--- a/Data/ApprovedVendors.xlsx
+++ b/Data/ApprovedVendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turis\OneDrive\Documents\UiPath\InvoiceExctractor_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D12104D-62EF-4EB1-8311-7426B8EB70A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28110349-34E4-40A5-90A5-60ECAAF7C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,465 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Vendor Name</t>
+  </si>
+  <si>
+    <t>Bosch Group</t>
+  </si>
+  <si>
+    <t>Denso Corporation</t>
+  </si>
+  <si>
+    <t>Magna International Inc.</t>
+  </si>
+  <si>
+    <t>ZF Friedrichshafen AG</t>
+  </si>
+  <si>
+    <t>Continental AG</t>
+  </si>
+  <si>
+    <t>Hyundai Mobis</t>
+  </si>
+  <si>
+    <t>Aisin Seiki Co. Ltd.</t>
+  </si>
+  <si>
+    <t>Lear Corporation</t>
+  </si>
+  <si>
+    <t>Valeo SA</t>
+  </si>
+  <si>
+    <t>Faurecia</t>
+  </si>
+  <si>
+    <t>Yazaki Corporation</t>
+  </si>
+  <si>
+    <t>Sumitomo Electric Industries</t>
+  </si>
+  <si>
+    <t>Adient plc</t>
+  </si>
+  <si>
+    <t>BorgWarner Inc.</t>
+  </si>
+  <si>
+    <t>Panasonic Automotive Systems</t>
+  </si>
+  <si>
+    <t>Toyota Boshoku Corporation</t>
+  </si>
+  <si>
+    <t>Schaeffler Group</t>
+  </si>
+  <si>
+    <t>Delphi Technologies</t>
+  </si>
+  <si>
+    <t>Autoliv Inc.</t>
+  </si>
+  <si>
+    <t>Hitachi Automotive Systems</t>
+  </si>
+  <si>
+    <t>Dana Incorporated</t>
+  </si>
+  <si>
+    <t>Tenneco Inc.</t>
+  </si>
+  <si>
+    <t>Mahle GmbH</t>
+  </si>
+  <si>
+    <t>Eberspächer Group</t>
+  </si>
+  <si>
+    <t>Calsonic Kansei Corporation</t>
+  </si>
+  <si>
+    <t>Hella GmbH &amp; Co. KGaA</t>
+  </si>
+  <si>
+    <t>Plastic Omnium</t>
+  </si>
+  <si>
+    <t>Brose Fahrzeugteile GmbH</t>
+  </si>
+  <si>
+    <t>GKN Automotive</t>
+  </si>
+  <si>
+    <t>Magneti Marelli S.p.A.</t>
+  </si>
+  <si>
+    <t>Denso International America</t>
+  </si>
+  <si>
+    <t>Robert Bosch LLC</t>
+  </si>
+  <si>
+    <t>Continental Automotive</t>
+  </si>
+  <si>
+    <t>TRW Automotive Holdings</t>
+  </si>
+  <si>
+    <t>Delphi Automotive plc</t>
+  </si>
+  <si>
+    <t>Federal-Mogul Holdings Corp.</t>
+  </si>
+  <si>
+    <t>Meritor Inc.</t>
+  </si>
+  <si>
+    <t>NGK Spark Plugs</t>
+  </si>
+  <si>
+    <t>Brembo North America</t>
+  </si>
+  <si>
+    <t>Gabriel (Ride Control LLC)</t>
+  </si>
+  <si>
+    <t>LKQ Corporation</t>
+  </si>
+  <si>
+    <t>NAPA Auto Parts</t>
+  </si>
+  <si>
+    <t>AutoZone</t>
+  </si>
+  <si>
+    <t>O'Reilly Auto Parts</t>
+  </si>
+  <si>
+    <t>Advance Auto Parts</t>
+  </si>
+  <si>
+    <t>Pep Boys</t>
+  </si>
+  <si>
+    <t>Carquest Auto Parts</t>
+  </si>
+  <si>
+    <t>RockAuto</t>
+  </si>
+  <si>
+    <t>Summit Racing Equipment</t>
+  </si>
+  <si>
+    <t>JEGS High Performance</t>
+  </si>
+  <si>
+    <t>PartsTech</t>
+  </si>
+  <si>
+    <t>Thomasnet</t>
+  </si>
+  <si>
+    <t>Matchory</t>
+  </si>
+  <si>
+    <t>Toyota Motor Corporation</t>
+  </si>
+  <si>
+    <t>Nissan Motor Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Tong Yang Group</t>
+  </si>
+  <si>
+    <t>Hyundai Motor Company</t>
+  </si>
+  <si>
+    <t>Kia Motors Corporation</t>
+  </si>
+  <si>
+    <t>Suzuki Motor Corporation</t>
+  </si>
+  <si>
+    <t>Subaru Corporation</t>
+  </si>
+  <si>
+    <t>Mazda Motor Corporation</t>
+  </si>
+  <si>
+    <t>Mitsubishi Motors Corporation</t>
+  </si>
+  <si>
+    <t>Isuzu Motors Limited</t>
+  </si>
+  <si>
+    <t>Daihatsu Motor Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Hino Motors, Ltd.</t>
+  </si>
+  <si>
+    <t>SAIC Motor Corporation</t>
+  </si>
+  <si>
+    <t>Dongfeng Motor Corporation</t>
+  </si>
+  <si>
+    <t>FAW Group Corporation</t>
+  </si>
+  <si>
+    <t>BAIC Group</t>
+  </si>
+  <si>
+    <t>Geely Automobile Holdings</t>
+  </si>
+  <si>
+    <t>[20:19]</t>
+  </si>
+  <si>
+    <t>ACDelco</t>
+  </si>
+  <si>
+    <t>Mopar</t>
+  </si>
+  <si>
+    <t>TRICO Products</t>
+  </si>
+  <si>
+    <t>Valeo Service</t>
+  </si>
+  <si>
+    <t>Cardone Industries</t>
+  </si>
+  <si>
+    <t>Gates Corporation</t>
+  </si>
+  <si>
+    <t>Timken Company</t>
+  </si>
+  <si>
+    <t>SKF Group</t>
+  </si>
+  <si>
+    <t>Walker Exhaust</t>
+  </si>
+  <si>
+    <t>Monroe Shocks &amp; Struts</t>
+  </si>
+  <si>
+    <t>KYB Corporation</t>
+  </si>
+  <si>
+    <t>Fram Group</t>
+  </si>
+  <si>
+    <t>Hastings Filters</t>
+  </si>
+  <si>
+    <t>Champion Auto Parts</t>
+  </si>
+  <si>
+    <t>Beck/Arnley</t>
+  </si>
+  <si>
+    <t>Standard Motor Products</t>
+  </si>
+  <si>
+    <t>Dorman Products</t>
+  </si>
+  <si>
+    <t>Wagner Brake</t>
+  </si>
+  <si>
+    <t>Bosch Automotive Aftermarket</t>
+  </si>
+  <si>
+    <t>Holley Performance Products</t>
+  </si>
+  <si>
+    <t>Edelbrock</t>
+  </si>
+  <si>
+    <t>AEM Electronics</t>
+  </si>
+  <si>
+    <t>Vibrant Performance</t>
+  </si>
+  <si>
+    <t>Hawk Performance</t>
+  </si>
+  <si>
+    <t>Power Stop Brakes</t>
+  </si>
+  <si>
+    <t>Centric Parts</t>
+  </si>
+  <si>
+    <t>Raybestos Brakes</t>
+  </si>
+  <si>
+    <t>Eibach Springs</t>
+  </si>
+  <si>
+    <t>Bilstein Suspension</t>
+  </si>
+  <si>
+    <t>K&amp;N Engineering</t>
+  </si>
+  <si>
+    <t>Spectre Performance</t>
+  </si>
+  <si>
+    <t>Magnaflow Exhaust Systems</t>
+  </si>
+  <si>
+    <t>Borla Performance Industries</t>
+  </si>
+  <si>
+    <t>Clevite Engine Parts</t>
+  </si>
+  <si>
+    <t>Moog Steering &amp; Suspension</t>
+  </si>
+  <si>
+    <t>Mevotech</t>
+  </si>
+  <si>
+    <t>Airaid Filters</t>
+  </si>
+  <si>
+    <t>Delphi Automotive Aftermarket</t>
+  </si>
+  <si>
+    <t>BorgWarner Turbo Systems</t>
+  </si>
+  <si>
+    <t>Akebono Brake Corporation</t>
+  </si>
+  <si>
+    <t>Bremi Ignition Products</t>
+  </si>
+  <si>
+    <t>Cloyes Gear &amp; Products</t>
+  </si>
+  <si>
+    <t>Fel-Pro Gaskets</t>
+  </si>
+  <si>
+    <t>Sealed Power</t>
+  </si>
+  <si>
+    <t>Wix Filters</t>
+  </si>
+  <si>
+    <t>Autolite</t>
+  </si>
+  <si>
+    <t>Champion Laboratories</t>
+  </si>
+  <si>
+    <t>Federal Parts</t>
+  </si>
+  <si>
+    <t>Hitachi Automotive Products</t>
+  </si>
+  <si>
+    <t>Schaeffler Automotive Aftermarket</t>
+  </si>
+  <si>
+    <t>Ferodo Braking Systems</t>
+  </si>
+  <si>
+    <t>ContiTech</t>
+  </si>
+  <si>
+    <t>INA Bearings</t>
+  </si>
+  <si>
+    <t>Osram Automotive Lighting</t>
+  </si>
+  <si>
+    <t>Huf Hülsbeck &amp; Fürst</t>
+  </si>
+  <si>
+    <t>Sylvania Automotive Lighting</t>
+  </si>
+  <si>
+    <t>NGK Ignition Parts</t>
+  </si>
+  <si>
+    <t>Mann+Hummel Filters</t>
+  </si>
+  <si>
+    <t>PIAA Corporation</t>
+  </si>
+  <si>
+    <t>Hella Lighting</t>
+  </si>
+  <si>
+    <t>Prothane Motion Control</t>
+  </si>
+  <si>
+    <t>Energy Suspension</t>
+  </si>
+  <si>
+    <t>Rancho Suspension Systems</t>
+  </si>
+  <si>
+    <t>ARB 4x4 Accessories</t>
+  </si>
+  <si>
+    <t>WARN Industries</t>
+  </si>
+  <si>
+    <t>Superlift Suspension Systems</t>
+  </si>
+  <si>
+    <t>Rough Country Suspension</t>
+  </si>
+  <si>
+    <t>Dee Zee Automotive Products</t>
+  </si>
+  <si>
+    <t>Curt Manufacturing</t>
+  </si>
+  <si>
+    <t>Westin Automotive Products</t>
+  </si>
+  <si>
+    <t>WeatherTech</t>
+  </si>
+  <si>
+    <t>Husky Liners</t>
+  </si>
+  <si>
+    <t>Extang Truck Bed Covers</t>
+  </si>
+  <si>
+    <t>Truxedo Tonneau Covers</t>
+  </si>
+  <si>
+    <t>Bestop Jeep Accessories</t>
+  </si>
+  <si>
+    <t>Fabtech Suspension Systems</t>
+  </si>
+  <si>
+    <t>Lund International</t>
+  </si>
+  <si>
+    <t>Putco Automotive Accessories</t>
+  </si>
+  <si>
+    <t>Roll-N-Lock Tonneau Covers</t>
+  </si>
+  <si>
+    <t>Retrax Truck Bed Covers</t>
+  </si>
+  <si>
+    <t>AUTOTECH SUPPLIES</t>
   </si>
 </sst>
 </file>
@@ -390,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +862,766 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/ApprovedVendors.xlsx
+++ b/Data/ApprovedVendors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turis\OneDrive\Documents\UiPath\InvoiceExctractor_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilieo\OneDrive\Documente\UiPath\RpaProjectPerfomer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28110349-34E4-40A5-90A5-60ECAAF7C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BBD937-FD4C-403C-9672-455821A155B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Vendor Name</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>AUTOTECH SUPPLIES</t>
+  </si>
+  <si>
+    <t>BREMBO NORTH AMERICA</t>
   </si>
 </sst>
 </file>
@@ -560,9 +563,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -600,9 +603,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,9 +638,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,9 +690,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A153"/>
+  <dimension ref="A1:A154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,6 +1659,11 @@
         <v>152</v>
       </c>
     </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
